--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/Top Pathways by PANTHER.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/Top Pathways by PANTHER.xlsx
@@ -21,265 +21,265 @@
     <t>Frequency</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>P00034</t>
+  </si>
+  <si>
+    <t>P00054</t>
+  </si>
+  <si>
+    <t>P06664</t>
+  </si>
+  <si>
+    <t>P00011</t>
+  </si>
+  <si>
+    <t>P00059</t>
+  </si>
+  <si>
+    <t>P00005</t>
+  </si>
+  <si>
+    <t>P00006</t>
+  </si>
+  <si>
+    <t>P00047</t>
+  </si>
+  <si>
+    <t>P00031</t>
+  </si>
+  <si>
+    <t>P00036</t>
+  </si>
+  <si>
+    <t>P00052</t>
+  </si>
+  <si>
+    <t>P00008</t>
+  </si>
+  <si>
+    <t>P00004</t>
+  </si>
+  <si>
+    <t>P00057</t>
+  </si>
+  <si>
+    <t>P00029</t>
+  </si>
+  <si>
+    <t>P05912</t>
+  </si>
+  <si>
+    <t>P00020</t>
+  </si>
+  <si>
+    <t>P00016</t>
+  </si>
+  <si>
+    <t>P00003</t>
+  </si>
+  <si>
+    <t>P00053</t>
+  </si>
+  <si>
+    <t>P04380</t>
+  </si>
+  <si>
+    <t>P06959</t>
+  </si>
+  <si>
+    <t>P00032</t>
+  </si>
+  <si>
+    <t>P05911</t>
+  </si>
+  <si>
+    <t>P05918</t>
+  </si>
+  <si>
+    <t>P00042</t>
+  </si>
+  <si>
+    <t>P00045</t>
+  </si>
+  <si>
+    <t>P00048</t>
+  </si>
+  <si>
+    <t>P00007</t>
+  </si>
+  <si>
+    <t>P00049</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>P00054</t>
-  </si>
-  <si>
-    <t>P00034</t>
-  </si>
-  <si>
-    <t>P00011</t>
-  </si>
-  <si>
-    <t>P00036</t>
-  </si>
-  <si>
-    <t>P00005</t>
-  </si>
-  <si>
-    <t>P00059</t>
-  </si>
-  <si>
-    <t>P00006</t>
-  </si>
-  <si>
-    <t>P00047</t>
-  </si>
-  <si>
-    <t>P00031</t>
-  </si>
-  <si>
-    <t>P00008</t>
-  </si>
-  <si>
-    <t>P00053</t>
-  </si>
-  <si>
-    <t>P06664</t>
-  </si>
-  <si>
-    <t>P00020</t>
-  </si>
-  <si>
-    <t>P00029</t>
-  </si>
-  <si>
-    <t>P00057</t>
-  </si>
-  <si>
-    <t>P05911</t>
-  </si>
-  <si>
-    <t>P05912</t>
-  </si>
-  <si>
-    <t>P05918</t>
-  </si>
-  <si>
-    <t>P00004</t>
-  </si>
-  <si>
-    <t>P00049</t>
-  </si>
-  <si>
-    <t>P00052</t>
-  </si>
-  <si>
-    <t>P04380</t>
-  </si>
-  <si>
-    <t>P00003</t>
-  </si>
-  <si>
-    <t>P00016</t>
-  </si>
-  <si>
-    <t>P00042</t>
+    <t>67</t>
+  </si>
+  <si>
+    <t>P02738</t>
+  </si>
+  <si>
+    <t>P00037</t>
+  </si>
+  <si>
+    <t>P00025</t>
+  </si>
+  <si>
+    <t>P00014</t>
+  </si>
+  <si>
+    <t>P00021</t>
+  </si>
+  <si>
+    <t>P00028</t>
   </si>
   <si>
     <t>P00044</t>
   </si>
   <si>
-    <t>P00048</t>
-  </si>
-  <si>
-    <t>P02783</t>
-  </si>
-  <si>
-    <t>P06959</t>
-  </si>
-  <si>
-    <t>P00032</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>P00014</t>
-  </si>
-  <si>
-    <t>P00021</t>
-  </si>
-  <si>
-    <t>P02738</t>
-  </si>
-  <si>
-    <t>P05731</t>
-  </si>
-  <si>
     <t>P00018</t>
   </si>
   <si>
-    <t>P00026</t>
+    <t>P00019</t>
   </si>
   <si>
     <t>P00043</t>
   </si>
   <si>
-    <t>P00009</t>
-  </si>
-  <si>
-    <t>P00010</t>
-  </si>
-  <si>
-    <t>P00015</t>
-  </si>
-  <si>
-    <t>P00019</t>
-  </si>
-  <si>
-    <t>P00025</t>
-  </si>
-  <si>
-    <t>P00037</t>
-  </si>
-  <si>
-    <t>P00046</t>
+    <t>P00060</t>
+  </si>
+  <si>
+    <t>P04375</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="3">
@@ -358,7 +358,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="4">
@@ -369,7 +369,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="5">
@@ -380,7 +380,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="6">
@@ -391,7 +391,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -402,7 +402,7 @@
         <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
@@ -413,7 +413,7 @@
         <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
@@ -424,7 +424,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="10">
@@ -435,7 +435,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
@@ -446,7 +446,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
@@ -457,7 +457,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
@@ -468,7 +468,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
@@ -490,7 +490,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
@@ -501,7 +501,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
@@ -512,7 +512,7 @@
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
@@ -523,7 +523,7 @@
         <v>48</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="19">
@@ -534,7 +534,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
@@ -545,7 +545,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
@@ -556,7 +556,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
@@ -567,7 +567,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
@@ -578,7 +578,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="24">
@@ -589,7 +589,7 @@
         <v>54</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="25">
@@ -600,7 +600,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="26">
@@ -611,7 +611,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="27">
@@ -622,7 +622,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="28">
@@ -633,7 +633,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="29">
@@ -644,7 +644,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="30">
@@ -655,7 +655,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -696,43 +696,43 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="6">
@@ -740,10 +740,10 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
@@ -751,274 +751,274 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
         <v>85</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>

--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/Top Pathways by PANTHER.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/Top Pathways by PANTHER.xlsx
@@ -21,265 +21,265 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>109</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>P00054</t>
+  </si>
+  <si>
+    <t>P00034</t>
+  </si>
+  <si>
+    <t>P00011</t>
+  </si>
+  <si>
+    <t>P00036</t>
+  </si>
+  <si>
+    <t>P00005</t>
+  </si>
+  <si>
+    <t>P00059</t>
+  </si>
+  <si>
+    <t>P00006</t>
+  </si>
+  <si>
+    <t>P00047</t>
+  </si>
+  <si>
+    <t>P00031</t>
+  </si>
+  <si>
+    <t>P00008</t>
+  </si>
+  <si>
+    <t>P00053</t>
+  </si>
+  <si>
+    <t>P06664</t>
+  </si>
+  <si>
+    <t>P00020</t>
+  </si>
+  <si>
+    <t>P00029</t>
+  </si>
+  <si>
+    <t>P00057</t>
+  </si>
+  <si>
+    <t>P05911</t>
+  </si>
+  <si>
+    <t>P05912</t>
+  </si>
+  <si>
+    <t>P05918</t>
+  </si>
+  <si>
+    <t>P00004</t>
+  </si>
+  <si>
+    <t>P00049</t>
+  </si>
+  <si>
+    <t>P00052</t>
+  </si>
+  <si>
+    <t>P04380</t>
+  </si>
+  <si>
+    <t>P00003</t>
+  </si>
+  <si>
+    <t>P00016</t>
+  </si>
+  <si>
+    <t>P00042</t>
+  </si>
+  <si>
+    <t>P00044</t>
+  </si>
+  <si>
+    <t>P00048</t>
+  </si>
+  <si>
+    <t>P02783</t>
+  </si>
+  <si>
+    <t>P06959</t>
+  </si>
+  <si>
+    <t>P00032</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>P00034</t>
-  </si>
-  <si>
-    <t>P00054</t>
-  </si>
-  <si>
-    <t>P06664</t>
-  </si>
-  <si>
-    <t>P00011</t>
-  </si>
-  <si>
-    <t>P00059</t>
-  </si>
-  <si>
-    <t>P00005</t>
-  </si>
-  <si>
-    <t>P00006</t>
-  </si>
-  <si>
-    <t>P00047</t>
-  </si>
-  <si>
-    <t>P00031</t>
-  </si>
-  <si>
-    <t>P00036</t>
-  </si>
-  <si>
-    <t>P00052</t>
-  </si>
-  <si>
-    <t>P00008</t>
-  </si>
-  <si>
-    <t>P00004</t>
-  </si>
-  <si>
-    <t>P00057</t>
-  </si>
-  <si>
-    <t>P00029</t>
-  </si>
-  <si>
-    <t>P05912</t>
-  </si>
-  <si>
-    <t>P00020</t>
-  </si>
-  <si>
-    <t>P00016</t>
-  </si>
-  <si>
-    <t>P00003</t>
-  </si>
-  <si>
-    <t>P00053</t>
-  </si>
-  <si>
-    <t>P04380</t>
-  </si>
-  <si>
-    <t>P06959</t>
-  </si>
-  <si>
-    <t>P00032</t>
-  </si>
-  <si>
-    <t>P05911</t>
-  </si>
-  <si>
-    <t>P05918</t>
-  </si>
-  <si>
-    <t>P00042</t>
-  </si>
-  <si>
-    <t>P00045</t>
-  </si>
-  <si>
-    <t>P00048</t>
-  </si>
-  <si>
-    <t>P00007</t>
-  </si>
-  <si>
-    <t>P00049</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>P00014</t>
+  </si>
+  <si>
+    <t>P00021</t>
   </si>
   <si>
     <t>P02738</t>
   </si>
   <si>
+    <t>P05731</t>
+  </si>
+  <si>
+    <t>P00018</t>
+  </si>
+  <si>
+    <t>P00026</t>
+  </si>
+  <si>
+    <t>P00043</t>
+  </si>
+  <si>
+    <t>P00009</t>
+  </si>
+  <si>
+    <t>P00010</t>
+  </si>
+  <si>
+    <t>P00015</t>
+  </si>
+  <si>
+    <t>P00019</t>
+  </si>
+  <si>
+    <t>P00025</t>
+  </si>
+  <si>
     <t>P00037</t>
   </si>
   <si>
-    <t>P00025</t>
-  </si>
-  <si>
-    <t>P00014</t>
-  </si>
-  <si>
-    <t>P00021</t>
-  </si>
-  <si>
-    <t>P00028</t>
-  </si>
-  <si>
-    <t>P00044</t>
-  </si>
-  <si>
-    <t>P00018</t>
-  </si>
-  <si>
-    <t>P00019</t>
-  </si>
-  <si>
-    <t>P00043</t>
-  </si>
-  <si>
-    <t>P00060</t>
-  </si>
-  <si>
-    <t>P04375</t>
+    <t>P00046</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
@@ -358,7 +358,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>32.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
@@ -369,7 +369,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>29.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
@@ -380,7 +380,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -391,7 +391,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
@@ -402,7 +402,7 @@
         <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -413,7 +413,7 @@
         <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -424,7 +424,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
@@ -435,7 +435,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
@@ -446,7 +446,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -457,7 +457,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
@@ -468,7 +468,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
@@ -490,7 +490,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
@@ -501,7 +501,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
@@ -512,7 +512,7 @@
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
@@ -523,7 +523,7 @@
         <v>48</v>
       </c>
       <c r="C18" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -534,7 +534,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -545,7 +545,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
@@ -556,7 +556,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
@@ -567,7 +567,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -578,7 +578,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -589,7 +589,7 @@
         <v>54</v>
       </c>
       <c r="C24" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
@@ -600,7 +600,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -611,7 +611,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
@@ -622,7 +622,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -633,7 +633,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -644,7 +644,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
@@ -655,7 +655,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -696,43 +696,43 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>24.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -740,10 +740,10 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -751,274 +751,274 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C7" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C18" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C21" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C23" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C24" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>84</v>
       </c>
       <c r="C26" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>85</v>
       </c>
       <c r="C27" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C28" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C30" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
       </c>
       <c r="C31" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
